--- a/biology/Zoologie/Bowie_scarymonsters/Bowie_scarymonsters.xlsx
+++ b/biology/Zoologie/Bowie_scarymonsters/Bowie_scarymonsters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie scarymonsters est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie scarymonsters est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sumatra en Indonésie[1]. Elle se rencontre vers le lac Toba[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sumatra en Indonésie. Elle se rencontre vers le lac Toba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,0 mm de long sur 4,5 mm et l'abdomen 4,4 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 6,3 mm de long sur 4,9 mm et l'abdomen 7,1 mm de long sur 4,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,0 mm de long sur 4,5 mm et l'abdomen 4,4 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 6,3 mm de long sur 4,9 mm et l'abdomen 7,1 mm de long sur 4,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Jäger en 2022. L'holotype est conservé au muséum Senckenberg de Francfort-sur-le-Main[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Jäger en 2022. L'holotype est conservé au muséum Senckenberg de Francfort-sur-le-Main.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à Scary Monsters, la chanson de David Bowie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
